--- a/SourceDataTables/FigS15a.xlsx
+++ b/SourceDataTables/FigS15a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -57,11 +57,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -73,6 +87,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,10 +118,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS15a.xlsx
+++ b/SourceDataTables/FigS15a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -71,11 +71,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -101,6 +105,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,10 +126,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS15a.xlsx
+++ b/SourceDataTables/FigS15a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -55,31 +55,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -89,26 +69,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,10 +86,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -138,7 +98,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.25094543652149698</v>
+        <v>0.252340944446863</v>
       </c>
     </row>
     <row r="3">
@@ -146,7 +106,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.065845274446558119</v>
+        <v>0.067123659967840046</v>
       </c>
     </row>
     <row r="4">
@@ -154,7 +114,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.14657968536317806</v>
+        <v>0.14784127458217394</v>
       </c>
     </row>
     <row r="5">
@@ -162,7 +122,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.084221682696188807</v>
+        <v>0.08546163236959492</v>
       </c>
     </row>
     <row r="6">
@@ -170,7 +130,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.13506787818614641</v>
+        <v>0.13627273951815486</v>
       </c>
     </row>
     <row r="7">
@@ -178,7 +138,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.18536917227054098</v>
+        <v>0.18659873307741739</v>
       </c>
     </row>
     <row r="8">
@@ -186,7 +146,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.15550898312326716</v>
+        <v>0.15672928564755598</v>
       </c>
     </row>
     <row r="9">
@@ -194,7 +154,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.21596537559122095</v>
+        <v>0.21719381080542358</v>
       </c>
     </row>
     <row r="10">
@@ -202,7 +162,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.18856279078816318</v>
+        <v>0.18977158719076379</v>
       </c>
     </row>
     <row r="11">
@@ -210,7 +170,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.27686486653706527</v>
+        <v>0.2780756127779091</v>
       </c>
     </row>
     <row r="12">
@@ -218,7 +178,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.22386247780131771</v>
+        <v>0.22502873049020761</v>
       </c>
     </row>
     <row r="13">
@@ -226,7 +186,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.27163963268195906</v>
+        <v>0.27284194999743361</v>
       </c>
     </row>
     <row r="14">
@@ -234,7 +194,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.045354169924575839</v>
+        <v>0.046693226333540151</v>
       </c>
     </row>
     <row r="15">
@@ -242,7 +202,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.03254204647501812</v>
+        <v>0.033852795569491542</v>
       </c>
     </row>
     <row r="16">
@@ -250,7 +210,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.041162779800213253</v>
+        <v>0.042426422475485025</v>
       </c>
     </row>
     <row r="17">
@@ -258,7 +218,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.27274579165235147</v>
+        <v>0.27353269193796187</v>
       </c>
     </row>
     <row r="18">
@@ -266,7 +226,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.19213230891468119</v>
+        <v>0.19352425053611214</v>
       </c>
     </row>
     <row r="19">
@@ -274,7 +234,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.15042118523815576</v>
+        <v>0.15166571638587151</v>
       </c>
     </row>
     <row r="20">
@@ -282,7 +242,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.17133125562355789</v>
+        <v>0.17262337413855633</v>
       </c>
     </row>
     <row r="21">
@@ -290,7 +250,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.18651273738868804</v>
+        <v>0.18777348072953529</v>
       </c>
     </row>
     <row r="22">
@@ -298,7 +258,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.28605829063006932</v>
+        <v>0.28719798812784475</v>
       </c>
     </row>
     <row r="23">
@@ -306,7 +266,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.31720131089409281</v>
+        <v>0.31840012053624828</v>
       </c>
     </row>
     <row r="24">
@@ -314,7 +274,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.29588407880013162</v>
+        <v>0.29704319315822614</v>
       </c>
     </row>
     <row r="25">
@@ -322,7 +282,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.35597567668265684</v>
+        <v>0.35711608966391284</v>
       </c>
     </row>
     <row r="26">
@@ -330,7 +290,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.73703091247131858</v>
+        <v>0.73490873193821049</v>
       </c>
     </row>
     <row r="27">
@@ -338,7 +298,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.58926378316111161</v>
+        <v>0.58734677749519726</v>
       </c>
     </row>
     <row r="28">
@@ -346,7 +306,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.72588636675236984</v>
+        <v>0.72406133548471585</v>
       </c>
     </row>
     <row r="29">
@@ -354,7 +314,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.8034023827310407</v>
+        <v>0.80182122085473206</v>
       </c>
     </row>
     <row r="30">
@@ -362,7 +322,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.66961879146857373</v>
+        <v>0.66760559334453184</v>
       </c>
     </row>
     <row r="31">
@@ -370,7 +330,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.86961313015835329</v>
+        <v>0.86802300351207529</v>
       </c>
     </row>
     <row r="32">
@@ -378,7 +338,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.8927356284592568</v>
+        <v>0.89063225947563418</v>
       </c>
     </row>
     <row r="33">
@@ -386,7 +346,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.44292469534015522</v>
+        <v>0.4411395032037862</v>
       </c>
     </row>
     <row r="34">
@@ -394,7 +354,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.64879916600489806</v>
+        <v>0.64673271973821755</v>
       </c>
     </row>
     <row r="35">
@@ -402,7 +362,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.77638637727456328</v>
+        <v>0.77471315153913833</v>
       </c>
     </row>
     <row r="36">
@@ -410,7 +370,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.82598594811960169</v>
+        <v>0.82466189606125451</v>
       </c>
     </row>
     <row r="37">
@@ -418,7 +378,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.53187951358853514</v>
+        <v>0.52996020470712224</v>
       </c>
     </row>
     <row r="38">
@@ -426,7 +386,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.7513943363221528</v>
+        <v>0.74941088713083581</v>
       </c>
     </row>
     <row r="39">
@@ -434,7 +394,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.87468983622004404</v>
+        <v>0.87331036113154381</v>
       </c>
     </row>
     <row r="40">
@@ -442,7 +402,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.94877748763404635</v>
+        <v>0.9466565465118385</v>
       </c>
     </row>
     <row r="41">
@@ -450,7 +410,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.68516915589042116</v>
+        <v>0.68308879835266945</v>
       </c>
     </row>
     <row r="42">
@@ -458,7 +418,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.78784923381638994</v>
+        <v>0.78635249538128849</v>
       </c>
     </row>
     <row r="43">
@@ -466,7 +426,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.84244205427197416</v>
+        <v>0.84122571985656469</v>
       </c>
     </row>
     <row r="44">
@@ -474,7 +434,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.82535702489537388</v>
+        <v>0.82339948556323905</v>
       </c>
     </row>
     <row r="45">
@@ -482,7 +442,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.48092950182850674</v>
+        <v>0.48184938943547073</v>
       </c>
     </row>
     <row r="46">
@@ -490,7 +450,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.66055855231612148</v>
+        <v>0.66136370470883821</v>
       </c>
     </row>
     <row r="47">
@@ -498,7 +458,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.0057951420431686</v>
+        <v>1.005452626047304</v>
       </c>
     </row>
     <row r="48">
@@ -506,7 +466,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.90341934359015241</v>
+        <v>0.90154510531920085</v>
       </c>
     </row>
     <row r="49">
@@ -514,7 +474,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.75752334962355927</v>
+        <v>0.75705802847267722</v>
       </c>
     </row>
     <row r="50">
@@ -522,7 +482,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.70909600322254185</v>
+        <v>0.71016896964379705</v>
       </c>
     </row>
     <row r="51">
@@ -530,7 +490,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.70764729828639272</v>
+        <v>0.70828310000264916</v>
       </c>
     </row>
     <row r="52">
@@ -538,7 +498,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.8898451477564947</v>
+        <v>0.88920745658231704</v>
       </c>
     </row>
     <row r="53">
@@ -546,7 +506,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.89371790812564256</v>
+        <v>0.89201387238837082</v>
       </c>
     </row>
     <row r="54">
@@ -554,7 +514,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.7929379004736159</v>
+        <v>0.79254390201276159</v>
       </c>
     </row>
     <row r="55">
@@ -562,7 +522,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1.0054880189361723</v>
+        <v>1.0042952877443752</v>
       </c>
     </row>
     <row r="56">
@@ -570,7 +530,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.83932760829346886</v>
+        <v>0.8375537591225406</v>
       </c>
     </row>
     <row r="57">
@@ -578,7 +538,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.912169504353192</v>
+        <v>0.91027898151587616</v>
       </c>
     </row>
     <row r="58">
@@ -586,7 +546,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.83259678119683378</v>
+        <v>0.83074014511734617</v>
       </c>
     </row>
     <row r="59">
@@ -594,7 +554,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.65934954979198801</v>
+        <v>0.6575053100815974</v>
       </c>
     </row>
     <row r="60">
@@ -602,7 +562,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.81732316411701922</v>
+        <v>0.81538676699876644</v>
       </c>
     </row>
     <row r="61">
@@ -610,7 +570,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.35081956863125252</v>
+        <v>0.35227893582875036</v>
       </c>
     </row>
     <row r="62">
@@ -618,7 +578,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.3146581620455064</v>
+        <v>0.31611812288097219</v>
       </c>
     </row>
     <row r="63">
@@ -626,7 +586,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.46688200665268509</v>
+        <v>0.46831732649885344</v>
       </c>
     </row>
     <row r="64">
@@ -634,7 +594,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.24878569183690089</v>
+        <v>0.25011601333760591</v>
       </c>
     </row>
     <row r="65">
@@ -642,7 +602,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.25172652441503895</v>
+        <v>0.25290060296425515</v>
       </c>
     </row>
     <row r="66">
@@ -650,7 +610,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.38643883619748276</v>
+        <v>0.38757671655011872</v>
       </c>
     </row>
     <row r="67">
@@ -658,7 +618,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.42068532936072722</v>
+        <v>0.42178150821106775</v>
       </c>
     </row>
     <row r="68">
@@ -666,7 +626,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.45501486225521715</v>
+        <v>0.456141435811794</v>
       </c>
     </row>
     <row r="69">
@@ -674,7 +634,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.56824497425859866</v>
+        <v>0.56918730058274625</v>
       </c>
     </row>
     <row r="70">
@@ -682,7 +642,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.70553789074891649</v>
+        <v>0.70611932836346769</v>
       </c>
     </row>
     <row r="71">
@@ -690,7 +650,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.87740321120766018</v>
+        <v>0.87750135170091503</v>
       </c>
     </row>
     <row r="72">
@@ -698,7 +658,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.72626371624920649</v>
+        <v>0.7269064893431525</v>
       </c>
     </row>
     <row r="73">
@@ -706,7 +666,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.81953442166891455</v>
+        <v>0.81988182973878521</v>
       </c>
     </row>
     <row r="74">
@@ -714,7 +674,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.84396162974610967</v>
+        <v>0.84309798966230309</v>
       </c>
     </row>
     <row r="75">
@@ -722,7 +682,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.87474571668152246</v>
+        <v>0.87316186895935799</v>
       </c>
     </row>
     <row r="76">
@@ -730,7 +690,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.8266698160558732</v>
+        <v>0.82614678799367913</v>
       </c>
     </row>
     <row r="77">
@@ -738,7 +698,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.84419809731801221</v>
+        <v>0.84280801248496184</v>
       </c>
     </row>
     <row r="78">
@@ -746,7 +706,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.89377017215782351</v>
+        <v>0.89281035121576313</v>
       </c>
     </row>
     <row r="79">
@@ -754,7 +714,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.89000728383650751</v>
+        <v>0.88944462126560209</v>
       </c>
     </row>
     <row r="80">
@@ -762,7 +722,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.89923693984365216</v>
+        <v>0.89925425692434757</v>
       </c>
     </row>
     <row r="81">
@@ -770,7 +730,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.8930804144283857</v>
+        <v>0.89286304395411187</v>
       </c>
     </row>
     <row r="82">
@@ -778,7 +738,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.91765239428427237</v>
+        <v>0.91697840957058763</v>
       </c>
     </row>
     <row r="83">
@@ -786,7 +746,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.47911433776225165</v>
+        <v>0.47728563730733103</v>
       </c>
     </row>
     <row r="84">
@@ -794,7 +754,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.047975869461495742</v>
+        <v>-0.04935510604422836</v>
       </c>
     </row>
     <row r="85">
@@ -802,7 +762,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.38765438617500536</v>
+        <v>0.38592361252782775</v>
       </c>
     </row>
     <row r="86">
@@ -810,7 +770,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.269511493597059</v>
+        <v>0.2678394996277097</v>
       </c>
     </row>
     <row r="87">
@@ -818,7 +778,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.8169263538114494</v>
+        <v>0.81687095826482437</v>
       </c>
     </row>
     <row r="88">
@@ -826,7 +786,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.75070008367489405</v>
+        <v>0.75145804240501224</v>
       </c>
     </row>
     <row r="89">
@@ -834,7 +794,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.81533172198407367</v>
+        <v>0.81531206564758241</v>
       </c>
     </row>
     <row r="90">
@@ -842,7 +802,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.30223629684387515</v>
+        <v>-0.3012465720026008</v>
       </c>
     </row>
     <row r="91">
@@ -850,7 +810,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.26502743890491737</v>
+        <v>0.26628913396781145</v>
       </c>
     </row>
     <row r="92">
@@ -858,7 +818,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-1.8969495648418102</v>
+        <v>-1.8972731043717963</v>
       </c>
     </row>
     <row r="93">
@@ -866,7 +826,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.52035512785633853</v>
+        <v>-0.52152876057041297</v>
       </c>
     </row>
     <row r="94">
@@ -874,7 +834,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.40524091708115417</v>
+        <v>0.40379904663185368</v>
       </c>
     </row>
     <row r="95">
@@ -882,7 +842,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.092892175402142688</v>
+        <v>-0.094193931454812571</v>
       </c>
     </row>
     <row r="96">
@@ -890,7 +850,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.69746001594385476</v>
+        <v>0.69602025495834785</v>
       </c>
     </row>
     <row r="97">
@@ -898,7 +858,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.90696106041066016</v>
+        <v>0.90619206879433811</v>
       </c>
     </row>
     <row r="98">
@@ -906,7 +866,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.92575534948737648</v>
+        <v>0.92546181619769119</v>
       </c>
     </row>
     <row r="99">
@@ -914,7 +874,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.18910725684502197</v>
+        <v>-0.19040483235074279</v>
       </c>
     </row>
     <row r="100">
@@ -922,7 +882,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-0.43797120327852768</v>
+        <v>-0.4392294345297178</v>
       </c>
     </row>
     <row r="101">
@@ -930,7 +890,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.27520876077278578</v>
+        <v>0.27355432940069047</v>
       </c>
     </row>
     <row r="102">
@@ -938,7 +898,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-1.8620773673604809</v>
+        <v>-1.8624410546841754</v>
       </c>
     </row>
     <row r="103">
@@ -946,7 +906,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-1.613463474639268</v>
+        <v>-1.6140087429510657</v>
       </c>
     </row>
     <row r="104">
@@ -954,7 +914,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-1.2804632809736913</v>
+        <v>-1.2812239934041345</v>
       </c>
     </row>
     <row r="105">
@@ -962,7 +922,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-1.6174834618324003</v>
+        <v>-1.6162700101606564</v>
       </c>
     </row>
     <row r="106">
@@ -970,7 +930,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-2.2092999585586885</v>
+        <v>-2.2094396677106243</v>
       </c>
     </row>
     <row r="107">
@@ -978,7 +938,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-0.77949763045263776</v>
+        <v>-0.78051196087871422</v>
       </c>
     </row>
     <row r="108">
@@ -986,7 +946,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-2.3914046449453008</v>
+        <v>-2.3914698265764587</v>
       </c>
     </row>
     <row r="109">
@@ -994,7 +954,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-1.4047906823989016</v>
+        <v>-1.4053174388070049</v>
       </c>
     </row>
     <row r="110">
@@ -1002,7 +962,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-2.0425421934929768</v>
+        <v>-2.0426922726382037</v>
       </c>
     </row>
     <row r="111">
@@ -1010,7 +970,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-2.0667449350402642</v>
+        <v>-2.0658326057942338</v>
       </c>
     </row>
     <row r="112">
@@ -1018,7 +978,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-2.3787014819092493</v>
+        <v>-2.3784725890521141</v>
       </c>
     </row>
     <row r="113">
@@ -1026,7 +986,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-1.8791282598757011</v>
+        <v>-1.8792900175170055</v>
       </c>
     </row>
     <row r="114">
@@ -1034,7 +994,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-2.3682112437310967</v>
+        <v>-2.3683447249326934</v>
       </c>
     </row>
     <row r="115">
@@ -1042,7 +1002,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-0.24892418775310279</v>
+        <v>-0.24801078500054852</v>
       </c>
     </row>
     <row r="116">
@@ -1050,7 +1010,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.2931707066954235</v>
+        <v>-0.29232650902870205</v>
       </c>
     </row>
     <row r="117">
@@ -1058,7 +1018,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.073494120351170852</v>
+        <v>-0.072504930424162964</v>
       </c>
     </row>
     <row r="118">
@@ -1066,7 +1026,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.027193971637670449</v>
+        <v>0.028422505503135007</v>
       </c>
     </row>
     <row r="119">
@@ -1074,7 +1034,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.16163408557926121</v>
+        <v>-0.16056742960782128</v>
       </c>
     </row>
     <row r="120">
@@ -1082,7 +1042,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.31959563149008002</v>
+        <v>-0.31859972890553562</v>
       </c>
     </row>
     <row r="121">
@@ -1090,7 +1050,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.017827012184633281</v>
+        <v>0.019038317272368745</v>
       </c>
     </row>
     <row r="122">
@@ -1098,7 +1058,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.52952610039298009</v>
+        <v>0.53076877215913554</v>
       </c>
     </row>
     <row r="123">
@@ -1106,7 +1066,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.51336385105388627</v>
+        <v>0.51441035147423764</v>
       </c>
     </row>
     <row r="124">
@@ -1114,7 +1074,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.82276000663291449</v>
+        <v>0.82304320235520578</v>
       </c>
     </row>
     <row r="125">
@@ -1122,7 +1082,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.67383527661833476</v>
+        <v>0.67457484100875631</v>
       </c>
     </row>
     <row r="126">
@@ -1130,7 +1090,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.89043038703697297</v>
+        <v>0.8902680807261123</v>
       </c>
     </row>
     <row r="127">
@@ -1138,7 +1098,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.88369160320456963</v>
+        <v>0.88364031068311921</v>
       </c>
     </row>
     <row r="128">
@@ -1146,7 +1106,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.12876298218338619</v>
+        <v>-0.13014759352104344</v>
       </c>
     </row>
     <row r="129">
@@ -1154,7 +1114,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-1.8568010586434291</v>
+        <v>-1.8571397953250204</v>
       </c>
     </row>
     <row r="130">
@@ -1162,7 +1122,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-1.5604520465276959</v>
+        <v>-1.5610239343455623</v>
       </c>
     </row>
     <row r="131">
@@ -1170,7 +1130,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.45582554430924238</v>
+        <v>0.45423159502065047</v>
       </c>
     </row>
     <row r="132">
@@ -1178,7 +1138,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-1.200011921989129</v>
+        <v>-1.2008028076173292</v>
       </c>
     </row>
     <row r="133">
@@ -1186,7 +1146,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.46209360217891332</v>
+        <v>-0.4631344656431905</v>
       </c>
     </row>
     <row r="134">
@@ -1194,7 +1154,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-0.20583789199703112</v>
+        <v>-0.20730567433925218</v>
       </c>
     </row>
     <row r="135">
@@ -1202,7 +1162,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.46740448388269518</v>
+        <v>0.46880823690202716</v>
       </c>
     </row>
     <row r="136">
@@ -1210,7 +1170,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.69171224319196456</v>
+        <v>0.69301067030981156</v>
       </c>
     </row>
     <row r="137">
@@ -1218,7 +1178,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.67436934293797168</v>
+        <v>0.67528113175501547</v>
       </c>
     </row>
     <row r="138">
@@ -1226,7 +1186,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.77487956964426685</v>
+        <v>0.77555579725007362</v>
       </c>
     </row>
     <row r="139">
@@ -1234,7 +1194,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.89879451345857775</v>
+        <v>0.89910150889234941</v>
       </c>
     </row>
     <row r="140">
@@ -1242,7 +1202,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.5962422391321186</v>
+        <v>-0.59733528657919832</v>
       </c>
     </row>
     <row r="141">
@@ -1250,7 +1210,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-2.2338542661960465</v>
+        <v>-2.2340077328828896</v>
       </c>
     </row>
     <row r="142">
@@ -1258,7 +1218,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-2.1890355560090549</v>
+        <v>-2.1892424569101316</v>
       </c>
     </row>
     <row r="143">
@@ -1266,7 +1226,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-1.9488086422434296</v>
+        <v>-1.9491283881377068</v>
       </c>
     </row>
     <row r="144">
@@ -1274,7 +1234,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-1.2581733952002043</v>
+        <v>-1.258888468478963</v>
       </c>
     </row>
     <row r="145">
@@ -1282,7 +1242,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.560751836299203</v>
+        <v>0.56181617297626474</v>
       </c>
     </row>
     <row r="146">
@@ -1290,7 +1250,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.59327151465853545</v>
+        <v>0.5942415254311002</v>
       </c>
     </row>
     <row r="147">
@@ -1298,7 +1258,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.78605642857314806</v>
+        <v>0.78658950312128506</v>
       </c>
     </row>
     <row r="148">
@@ -1306,7 +1266,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.76792299403769659</v>
+        <v>0.76881285269174426</v>
       </c>
     </row>
     <row r="149">
@@ -1314,7 +1274,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1.1796089130212934</v>
+        <v>1.1786517587159557</v>
       </c>
     </row>
     <row r="150">
@@ -1322,7 +1282,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.48664526227179056</v>
+        <v>0.48775548764649174</v>
       </c>
     </row>
     <row r="151">
@@ -1330,7 +1290,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.54328800122149268</v>
+        <v>0.54428472792821847</v>
       </c>
     </row>
     <row r="152">
@@ -1338,7 +1298,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-1.2157671113676909</v>
+        <v>-1.2165126343368446</v>
       </c>
     </row>
     <row r="153">
@@ -1346,7 +1306,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>-1.4681345301604862</v>
+        <v>-1.4686956979572077</v>
       </c>
     </row>
     <row r="154">
@@ -1354,7 +1314,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>-0.98176130093521463</v>
+        <v>-0.98262688642691931</v>
       </c>
     </row>
     <row r="155">
@@ -1362,7 +1322,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.61047608340097903</v>
+        <v>0.61143213215378289</v>
       </c>
     </row>
     <row r="156">
@@ -1370,7 +1330,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.64225495586185133</v>
+        <v>0.6432233690536554</v>
       </c>
     </row>
     <row r="157">
@@ -1378,7 +1338,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.71440166343482969</v>
+        <v>0.71510208370099371</v>
       </c>
     </row>
     <row r="158">
@@ -1386,7 +1346,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.83572034210730728</v>
+        <v>0.83580986345395991</v>
       </c>
     </row>
     <row r="159">
@@ -1394,7 +1354,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.4878158694607575</v>
+        <v>0.48660041705414764</v>
       </c>
     </row>
     <row r="160">
@@ -1402,7 +1362,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.65918814207292931</v>
+        <v>0.6600434542835989</v>
       </c>
     </row>
     <row r="161">
@@ -1410,7 +1370,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.9172489872588353</v>
+        <v>0.91765507549241487</v>
       </c>
     </row>
     <row r="162">
@@ -1418,7 +1378,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>-2.3493868060873608</v>
+        <v>-2.3494637391873066</v>
       </c>
     </row>
     <row r="163">
@@ -1426,7 +1386,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>-2.2265711266581096</v>
+        <v>-2.226396060546838</v>
       </c>
     </row>
     <row r="164">
@@ -1434,7 +1394,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-2.2453613799165995</v>
+        <v>-2.2455541339700251</v>
       </c>
     </row>
     <row r="165">
@@ -1442,7 +1402,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-2.1485742178316802</v>
+        <v>-2.1487669748809224</v>
       </c>
     </row>
     <row r="166">
@@ -1450,7 +1410,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-2.2194989932289109</v>
+        <v>-2.2196945732507025</v>
       </c>
     </row>
     <row r="167">
@@ -1458,7 +1418,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>-1.6592487014139983</v>
+        <v>-1.6597193427755219</v>
       </c>
     </row>
     <row r="168">
@@ -1466,7 +1426,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>-0.18626651474943515</v>
+        <v>-0.18523188659361395</v>
       </c>
     </row>
     <row r="169">
@@ -1474,7 +1434,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>-0.085730347494516565</v>
+        <v>-0.084570760016267579</v>
       </c>
     </row>
     <row r="170">
@@ -1482,7 +1442,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.057209413989531055</v>
+        <v>0.058459030532883302</v>
       </c>
     </row>
     <row r="171">
@@ -1490,7 +1450,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.13229523100104193</v>
+        <v>0.13362536451301099</v>
       </c>
     </row>
     <row r="172">
@@ -1498,7 +1458,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.30957604916778125</v>
+        <v>0.3109046821756572</v>
       </c>
     </row>
     <row r="173">
@@ -1506,7 +1466,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.40260569610906749</v>
+        <v>0.40396581522609359</v>
       </c>
     </row>
     <row r="174">
@@ -1514,7 +1474,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.34728099213848346</v>
+        <v>0.34843591445984995</v>
       </c>
     </row>
     <row r="175">
@@ -1522,7 +1482,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.64552830951364859</v>
+        <v>0.6467806417334383</v>
       </c>
     </row>
     <row r="176">
@@ -1530,7 +1490,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>-1.8581877607491715</v>
+        <v>-1.8585609179268163</v>
       </c>
     </row>
     <row r="177">
@@ -1538,7 +1498,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-1.8711084571985663</v>
+        <v>-1.871459307252882</v>
       </c>
     </row>
     <row r="178">
@@ -1546,7 +1506,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-1.7563946312686052</v>
+        <v>-1.7568120864982091</v>
       </c>
     </row>
     <row r="179">
@@ -1554,7 +1514,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-1.5481038302880248</v>
+        <v>-1.5486280407294546</v>
       </c>
     </row>
     <row r="180">
@@ -1562,7 +1522,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>-1.0298701423367778</v>
+        <v>-1.030724784950654</v>
       </c>
     </row>
     <row r="181">
@@ -1570,7 +1530,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>-0.41495960539815319</v>
+        <v>-0.41616682745030559</v>
       </c>
     </row>
     <row r="182">
@@ -1578,7 +1538,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>-0.73272052950811173</v>
+        <v>-0.73373826400034703</v>
       </c>
     </row>
     <row r="183">
@@ -1586,7 +1546,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>-0.13049972688772501</v>
+        <v>-0.13184313545667498</v>
       </c>
     </row>
     <row r="184">
@@ -1594,7 +1554,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>-2.242638734232218</v>
+        <v>-2.242432535817231</v>
       </c>
     </row>
     <row r="185">
@@ -1602,7 +1562,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-2.4020441326391158</v>
+        <v>-2.4020665459425707</v>
       </c>
     </row>
     <row r="186">
@@ -1610,7 +1570,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>-2.2690766781167522</v>
+        <v>-2.2691751582112674</v>
       </c>
     </row>
     <row r="187">
@@ -1618,7 +1578,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>-2.0535586062874378</v>
+        <v>-2.0537500965563966</v>
       </c>
     </row>
     <row r="188">
@@ -1626,7 +1586,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>-1.5682546103295292</v>
+        <v>-1.568822480963078</v>
       </c>
     </row>
     <row r="189">
@@ -1634,7 +1594,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0.40670689497341045</v>
+        <v>0.40785173997669322</v>
       </c>
     </row>
     <row r="190">
@@ -1642,7 +1602,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.48079931591079306</v>
+        <v>0.48201824842694779</v>
       </c>
     </row>
     <row r="191">
@@ -1650,7 +1610,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.50354361751001098</v>
+        <v>0.50465634627758249</v>
       </c>
     </row>
     <row r="192">
@@ -1658,7 +1618,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0.5272649199366557</v>
+        <v>0.52836747809198115</v>
       </c>
     </row>
     <row r="193">
@@ -1666,7 +1626,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.79987013889161473</v>
+        <v>0.80079355657937867</v>
       </c>
     </row>
     <row r="194">
@@ -1674,7 +1634,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.026656247693321904</v>
+        <v>0.028029462946771919</v>
       </c>
     </row>
     <row r="195">
@@ -1682,7 +1642,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.46629205631954135</v>
+        <v>0.46667475907277289</v>
       </c>
     </row>
     <row r="196">
@@ -1690,7 +1650,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.12873269789256778</v>
+        <v>0.1300247816581292</v>
       </c>
     </row>
     <row r="197">
@@ -1698,7 +1658,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.39245096453294237</v>
+        <v>0.39352808468179534</v>
       </c>
     </row>
     <row r="198">
@@ -1706,7 +1666,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.61210051652099184</v>
+        <v>0.61333479345070996</v>
       </c>
     </row>
     <row r="199">
@@ -1714,7 +1674,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.3203110156867246</v>
+        <v>0.32161718457276844</v>
       </c>
     </row>
     <row r="200">
@@ -1722,7 +1682,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.4463660836949172</v>
+        <v>0.44759063819114903</v>
       </c>
     </row>
     <row r="201">
@@ -1730,7 +1690,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.55515679159108888</v>
+        <v>0.55646806077839239</v>
       </c>
     </row>
   </sheetData>
